--- a/medicine/Psychotrope/LifeRing/LifeRing.xlsx
+++ b/medicine/Psychotrope/LifeRing/LifeRing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 LifeRing (« LifeRing » et « LifeRing Secular Recovery » aux États-Unis) est un réseau international de groupes d'entraide destiné au rétablissement de la dépendance à l'alcool et autres drogues et basé sur les principes d'abstinence, de laïcité et d'autonomie.
@@ -514,10 +526,12 @@
           <t>Structure et histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">LifeRing est une organisation à but non lucratif, indépendante et dirigée démocratiquement. Le nom LifeRing a été adopté en 1999 et a tenu son congrès fondateur en 2001. Chaque groupe élit un délégué pour le congrès annuel de LifeRing, durant lequel les élections sont faites et les décisions prises. Il existe un centre de service (LifeRing Inc.) et un centre de publication (LifeRing Press). Tous les directeurs et officiers sont des volontaires non rémunérés et LifeRing couvrent ses frais par les dons faits par les participants lors des réunions et la vente de ses publications.
-Afin de gérer LifeRing de manière autonome et démocratique, les membres du conseil d'administration de LifeRing ont adopté divers règlements[1].
+Afin de gérer LifeRing de manière autonome et démocratique, les membres du conseil d'administration de LifeRing ont adopté divers règlements.
 </t>
         </is>
       </c>
@@ -546,15 +560,11 @@
           <t>Principes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'approche de LifeRing repose sur trois principes fondamentaux: l'abstinence, la laïcité et l'autonomie. 
-Abstinence
-La seule condition requise pour participer à LifeRing est le désir de devenir et de demeurer abstinent d'alcool et de drogues. Toutes personnes quelle que soit la ou les substance(s) de choix sont accueillis et l'association prône l’abstinence « complète » (de toutes drogues), car la dépendance à l’alcool et la dépendance aux drogues est considérée à LifeRing comme un seul et même problème.
-Laïcité
-LifeRing accueille toute personne quelle que soit sa confession, ou absence de confession. De ce fait en participant aux réunions de LifeRing, les participants peuvent garder leurs croyances religieuses, et il n'y a aucune demande qu'ils en adoptent s'ils n’en ont aucune. Pour LifeRing, les croyances religieuses ou spirituelles de leurs participants relèvent du domaine privé. Chacun à LifeRing est évidemment libre d'incorporer des principes religieux, spirituels ou moraux à son rétablissement personnel, cependant ces sujets ne sont pas discutés dans les réunions de LifeRing.
-Autonomie
-LifeRing considère que la clef du rétablissement réside dans la motivation et les efforts personnels du participant. La fonction du groupe est seulement de renforcer les capacités de chaque participant à rester abstinent et se rétablir des conséquences de sa dépendance. Les réunions peuvent être vu de ce fait comme des ateliers dans lesquels les participants développent leur propre programme de rétablissement. Un manuel intitulé Recovery by Choice est publié par LifeRing Press qui permet à toute personne d'aborder son rétablissement de manière plus structurée. LifeRing ne prescrit aucune étape en particulier autre que celle de rester abstinent; le reste du processus de rétablissement repose sur les choix individuels de chaque participant, ce qui rend l'approche de LifeRing essentiellement libérale, pragmatique et éclectique. Des experts pourrait y trouver des éléments de la thérapie cognitivo-comportementale, de l'entretien motivationnel, de la thérapie brève centrée sur la solution, et bien d'autres.
 </t>
         </is>
       </c>
@@ -580,10 +590,123 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Principes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Abstinence</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La seule condition requise pour participer à LifeRing est le désir de devenir et de demeurer abstinent d'alcool et de drogues. Toutes personnes quelle que soit la ou les substance(s) de choix sont accueillis et l'association prône l’abstinence « complète » (de toutes drogues), car la dépendance à l’alcool et la dépendance aux drogues est considérée à LifeRing comme un seul et même problème.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LifeRing</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/LifeRing</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Laïcité</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LifeRing accueille toute personne quelle que soit sa confession, ou absence de confession. De ce fait en participant aux réunions de LifeRing, les participants peuvent garder leurs croyances religieuses, et il n'y a aucune demande qu'ils en adoptent s'ils n’en ont aucune. Pour LifeRing, les croyances religieuses ou spirituelles de leurs participants relèvent du domaine privé. Chacun à LifeRing est évidemment libre d'incorporer des principes religieux, spirituels ou moraux à son rétablissement personnel, cependant ces sujets ne sont pas discutés dans les réunions de LifeRing.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>LifeRing</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/LifeRing</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Principes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autonomie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LifeRing considère que la clef du rétablissement réside dans la motivation et les efforts personnels du participant. La fonction du groupe est seulement de renforcer les capacités de chaque participant à rester abstinent et se rétablir des conséquences de sa dépendance. Les réunions peuvent être vu de ce fait comme des ateliers dans lesquels les participants développent leur propre programme de rétablissement. Un manuel intitulé Recovery by Choice est publié par LifeRing Press qui permet à toute personne d'aborder son rétablissement de manière plus structurée. LifeRing ne prescrit aucune étape en particulier autre que celle de rester abstinent; le reste du processus de rétablissement repose sur les choix individuels de chaque participant, ce qui rend l'approche de LifeRing essentiellement libérale, pragmatique et éclectique. Des experts pourrait y trouver des éléments de la thérapie cognitivo-comportementale, de l'entretien motivationnel, de la thérapie brève centrée sur la solution, et bien d'autres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LifeRing</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/LifeRing</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Réunions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'approche de LifeRing est basée sur le renforcement des qualités et des compétences que les participants possèdent déjà, et elle fonctionne par le rassemblement de personnes qui s'entraident à rester abstinentes et à se rétablir des conséquences de leur dépendance.
 Par la participation aux réunions de LifeRing, la désir de chacun de demeurer abstinent et de se rétablir se voit renforcé, jusqu'au jour ou l'abstinence cesse d'être une lutte et devient presque seconde nature. Aussi longtemps que la personne en rétablissement s'abstient de l'alcool et des drogues, elle pourra découvrira son propre potentiel pour mener une vie riche et productive. 
@@ -593,31 +716,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>LifeRing</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/LifeRing</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>LifeRing Press (le centre de publication de LifeRing) publie divers livres et brochures. Actuellement ceux-ci n'existent qu'en anglais.
 Livres
